--- a/Data_clean/MCAS/Estados_US/Edos_USA_2020/MASSACHUSETTS_2020.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2020/MASSACHUSETTS_2020.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D263"/>
+  <dimension ref="A1:D257"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -519,7 +519,7 @@
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C11">
@@ -688,7 +688,7 @@
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C24">
@@ -971,7 +971,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1124,12 +1124,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C56">
@@ -1155,7 +1155,7 @@
     <row r="58">
       <c r="B58" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C58">
@@ -1207,7 +1207,7 @@
     <row r="62">
       <c r="B62" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C62">
@@ -1233,7 +1233,7 @@
     <row r="64">
       <c r="B64" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C64">
@@ -1285,12 +1285,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>GUANAJUATO</t>
+          <t>Guanajuato</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C68">
@@ -1303,7 +1303,7 @@
     <row r="69">
       <c r="B69" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C69">
@@ -1329,7 +1329,7 @@
     <row r="71">
       <c r="B71" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C71">
@@ -1381,7 +1381,7 @@
     <row r="75">
       <c r="B75" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C75">
@@ -1394,7 +1394,7 @@
     <row r="76">
       <c r="B76" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C76">
@@ -1407,7 +1407,7 @@
     <row r="77">
       <c r="B77" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C77">
@@ -1420,7 +1420,7 @@
     <row r="78">
       <c r="B78" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C78">
@@ -1469,7 +1469,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C81">
@@ -1495,7 +1495,7 @@
     <row r="83">
       <c r="B83" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerero</t>
+          <t>Alcozauca De Guerero</t>
         </is>
       </c>
       <c r="C83">
@@ -1521,7 +1521,7 @@
     <row r="85">
       <c r="B85" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C85">
@@ -1534,7 +1534,7 @@
     <row r="86">
       <c r="B86" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C86">
@@ -1547,7 +1547,7 @@
     <row r="87">
       <c r="B87" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C87">
@@ -1560,7 +1560,7 @@
     <row r="88">
       <c r="B88" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C88">
@@ -1599,7 +1599,7 @@
     <row r="91">
       <c r="B91" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C91">
@@ -1625,7 +1625,7 @@
     <row r="93">
       <c r="B93" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C93">
@@ -1703,7 +1703,7 @@
     <row r="99">
       <c r="B99" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C99">
@@ -1825,7 +1825,7 @@
     <row r="108">
       <c r="B108" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C108">
@@ -1838,7 +1838,7 @@
     <row r="109">
       <c r="B109" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C109">
@@ -1869,7 +1869,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C111">
@@ -1960,7 +1960,7 @@
     <row r="118">
       <c r="B118" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C118">
@@ -1999,7 +1999,7 @@
     <row r="121">
       <c r="B121" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C121">
@@ -2025,7 +2025,7 @@
     <row r="123">
       <c r="B123" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C123">
@@ -2038,7 +2038,7 @@
     <row r="124">
       <c r="B124" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C124">
@@ -2077,7 +2077,7 @@
     <row r="127">
       <c r="B127" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C127">
@@ -2357,7 +2357,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C147">
@@ -2396,7 +2396,7 @@
     <row r="150">
       <c r="B150" t="inlineStr">
         <is>
-          <t>San Dionisio del Mar</t>
+          <t>San Dionisio Del Mar</t>
         </is>
       </c>
       <c r="C150">
@@ -2448,7 +2448,7 @@
     <row r="154">
       <c r="B154" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C154">
@@ -2526,7 +2526,7 @@
     <row r="160">
       <c r="B160" t="inlineStr">
         <is>
-          <t>Tlalixtac de Cabrera</t>
+          <t>Tlalixtac De Cabrera</t>
         </is>
       </c>
       <c r="C160">
@@ -2539,7 +2539,7 @@
     <row r="161">
       <c r="B161" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C161">
@@ -2552,7 +2552,7 @@
     <row r="162">
       <c r="B162" t="inlineStr">
         <is>
-          <t>Villa Talea de Castro</t>
+          <t>Villa Talea De Castro</t>
         </is>
       </c>
       <c r="C162">
@@ -2726,7 +2726,7 @@
     <row r="175">
       <c r="B175" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C175">
@@ -2830,7 +2830,7 @@
     <row r="183">
       <c r="B183" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C183">
@@ -3087,7 +3087,7 @@
     <row r="202">
       <c r="B202" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C202">
@@ -3442,7 +3442,7 @@
     <row r="227">
       <c r="B227" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C227">
@@ -3520,7 +3520,7 @@
     <row r="233">
       <c r="B233" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C233">
@@ -3533,7 +3533,7 @@
     <row r="234">
       <c r="B234" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C234">
@@ -3598,7 +3598,7 @@
     <row r="239">
       <c r="B239" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C239">
@@ -3850,41 +3850,6 @@
       </c>
       <c r="D257">
         <v>1</v>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 497,795</t>
-        </is>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" t="inlineStr">
-        <is>
-          <t>Octubre de 2021</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2020/MASSACHUSETTS_2020.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2020/MASSACHUSETTS_2020.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Total</t>
@@ -429,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Tijuana</t>
@@ -442,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Total</t>
@@ -473,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Total</t>
@@ -504,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Acapetahua</t>
@@ -517,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Amatenango De La Frontera</t>
@@ -530,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Bella Vista</t>
@@ -543,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Chamula</t>
@@ -556,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Chapultenango</t>
@@ -569,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>El Porvenir</t>
@@ -582,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Escuintla</t>
@@ -595,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Frontera Comalapa</t>
@@ -608,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Huehuetán</t>
@@ -621,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Huixtla</t>
@@ -634,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>La Concordia</t>
@@ -647,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>La Trinitaria</t>
@@ -660,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Las Margaritas</t>
@@ -673,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Mapastepec</t>
@@ -686,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Mazapa De Madero</t>
@@ -699,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Motozintla</t>
@@ -712,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Ocosingo</t>
@@ -725,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Oxchuc</t>
@@ -738,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Palenque</t>
@@ -751,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Siltepec</t>
@@ -764,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Suchiate</t>
@@ -777,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Tapachula</t>
@@ -790,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Tecpatán</t>
@@ -803,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Tenejapa</t>
@@ -816,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Tonalá</t>
@@ -829,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Tuxtla Chico</t>
@@ -842,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Tuzantán</t>
@@ -855,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Unión Juárez</t>
@@ -868,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Villa Corzo</t>
@@ -881,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Total</t>
@@ -912,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Total</t>
@@ -943,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Manzanillo</t>
@@ -956,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Total</t>
@@ -987,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Azcapotzalco</t>
@@ -1000,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Benito Juárez</t>
@@ -1013,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Coyoacán</t>
@@ -1026,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -1039,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Iztacalco</t>
@@ -1052,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -1065,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1096,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Durango</t>
@@ -1109,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1140,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Aculco</t>
@@ -1153,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Almoloya De Juárez</t>
@@ -1166,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Chimalhuacán</t>
@@ -1179,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Coyotepec</t>
@@ -1192,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Cuautitlán</t>
@@ -1205,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Naucalpan De Juárez</t>
@@ -1218,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Tejupilco</t>
@@ -1231,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Tlalnepantla De Baz</t>
@@ -1244,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Toluca</t>
@@ -1257,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Zumpango</t>
@@ -1270,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1301,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Apaseo El Grande</t>
@@ -1314,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Celaya</t>
@@ -1327,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
@@ -1340,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Irapuato</t>
@@ -1353,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Moroleón</t>
@@ -1366,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>Pénjamo</t>
@@ -1379,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Purísima Del Rincón</t>
@@ -1392,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>San Luis De La Paz</t>
@@ -1405,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>Silao De La Victoria</t>
@@ -1418,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Valle De Santiago</t>
@@ -1431,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>Yuriria</t>
@@ -1480,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>Ahuacuotzingo</t>
@@ -1493,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>Alcozauca De Guerero</t>
@@ -1506,6 +1856,11 @@
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>Arcelia</t>
@@ -1519,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Atenango Del Río</t>
@@ -1532,6 +1892,11 @@
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>Atlamajalcingo Del Monte</t>
@@ -1545,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>Ayutla De Los Libres</t>
@@ -1558,6 +1928,11 @@
       </c>
     </row>
     <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>Chilapa De Álvarez</t>
@@ -1571,6 +1946,11 @@
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>Copanatoyac</t>
@@ -1584,6 +1964,11 @@
       </c>
     </row>
     <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B90" t="inlineStr">
         <is>
           <t>Huamuxtitlán</t>
@@ -1597,6 +1982,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>Iguala De La Independencia</t>
@@ -1610,6 +2000,11 @@
       </c>
     </row>
     <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
           <t>Malinaltepec</t>
@@ -1623,6 +2018,11 @@
       </c>
     </row>
     <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B93" t="inlineStr">
         <is>
           <t>Mártir De Cuilapan</t>
@@ -1636,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>Olinalá</t>
@@ -1649,6 +2054,11 @@
       </c>
     </row>
     <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B95" t="inlineStr">
         <is>
           <t>Pungarabato</t>
@@ -1662,6 +2072,11 @@
       </c>
     </row>
     <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B96" t="inlineStr">
         <is>
           <t>Quechultenango</t>
@@ -1675,6 +2090,11 @@
       </c>
     </row>
     <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B97" t="inlineStr">
         <is>
           <t>San Luis Acatlán</t>
@@ -1688,6 +2108,11 @@
       </c>
     </row>
     <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B98" t="inlineStr">
         <is>
           <t>San Marcos</t>
@@ -1701,6 +2126,11 @@
       </c>
     </row>
     <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B99" t="inlineStr">
         <is>
           <t>Tlalixtaquilla De Maldonado</t>
@@ -1714,6 +2144,11 @@
       </c>
     </row>
     <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B100" t="inlineStr">
         <is>
           <t>Xalpatláhuac</t>
@@ -1727,6 +2162,11 @@
       </c>
     </row>
     <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B101" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1758,6 +2198,11 @@
       </c>
     </row>
     <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B103" t="inlineStr">
         <is>
           <t>Alfajayucan</t>
@@ -1771,6 +2216,11 @@
       </c>
     </row>
     <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B104" t="inlineStr">
         <is>
           <t>Chapulhuacán</t>
@@ -1784,6 +2234,11 @@
       </c>
     </row>
     <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B105" t="inlineStr">
         <is>
           <t>Chilcuautla</t>
@@ -1797,6 +2252,11 @@
       </c>
     </row>
     <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B106" t="inlineStr">
         <is>
           <t>Francisco I. Madero</t>
@@ -1810,6 +2270,11 @@
       </c>
     </row>
     <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B107" t="inlineStr">
         <is>
           <t>Ixmiquilpan</t>
@@ -1823,6 +2288,11 @@
       </c>
     </row>
     <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B108" t="inlineStr">
         <is>
           <t>Pachuca De Soto</t>
@@ -1836,6 +2306,11 @@
       </c>
     </row>
     <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B109" t="inlineStr">
         <is>
           <t>Tenango De Doria</t>
@@ -1849,6 +2324,11 @@
       </c>
     </row>
     <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B110" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1880,6 +2360,11 @@
       </c>
     </row>
     <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B112" t="inlineStr">
         <is>
           <t>Ayotlán</t>
@@ -1893,6 +2378,11 @@
       </c>
     </row>
     <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B113" t="inlineStr">
         <is>
           <t>Ayutla</t>
@@ -1906,6 +2396,11 @@
       </c>
     </row>
     <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B114" t="inlineStr">
         <is>
           <t>Ejutla</t>
@@ -1919,6 +2414,11 @@
       </c>
     </row>
     <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B115" t="inlineStr">
         <is>
           <t>Gómez Farías</t>
@@ -1932,6 +2432,11 @@
       </c>
     </row>
     <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B116" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -1945,6 +2450,11 @@
       </c>
     </row>
     <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B117" t="inlineStr">
         <is>
           <t>Jesús María</t>
@@ -1958,6 +2468,11 @@
       </c>
     </row>
     <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B118" t="inlineStr">
         <is>
           <t>Lagos De Moreno</t>
@@ -1971,6 +2486,11 @@
       </c>
     </row>
     <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B119" t="inlineStr">
         <is>
           <t>Mexticacán</t>
@@ -1984,6 +2504,11 @@
       </c>
     </row>
     <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B120" t="inlineStr">
         <is>
           <t>Ocotlán</t>
@@ -1997,6 +2522,11 @@
       </c>
     </row>
     <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B121" t="inlineStr">
         <is>
           <t>Ojuelos De Jalisco</t>
@@ -2010,6 +2540,11 @@
       </c>
     </row>
     <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B122" t="inlineStr">
         <is>
           <t>Poncitlán</t>
@@ -2023,6 +2558,11 @@
       </c>
     </row>
     <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B123" t="inlineStr">
         <is>
           <t>Tizapán El Alto</t>
@@ -2036,6 +2576,11 @@
       </c>
     </row>
     <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B124" t="inlineStr">
         <is>
           <t>Tlajomulco De Zúñiga</t>
@@ -2049,6 +2594,11 @@
       </c>
     </row>
     <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B125" t="inlineStr">
         <is>
           <t>San Pedro Tlaquepaque</t>
@@ -2062,6 +2612,11 @@
       </c>
     </row>
     <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B126" t="inlineStr">
         <is>
           <t>Tonalá</t>
@@ -2075,6 +2630,11 @@
       </c>
     </row>
     <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B127" t="inlineStr">
         <is>
           <t>Unión De Tula</t>
@@ -2088,6 +2648,11 @@
       </c>
     </row>
     <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B128" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2119,6 +2684,11 @@
       </c>
     </row>
     <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B130" t="inlineStr">
         <is>
           <t>Huiramba</t>
@@ -2132,6 +2702,11 @@
       </c>
     </row>
     <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B131" t="inlineStr">
         <is>
           <t>Jungapeo</t>
@@ -2145,6 +2720,11 @@
       </c>
     </row>
     <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B132" t="inlineStr">
         <is>
           <t>Pátzcuaro</t>
@@ -2158,6 +2738,11 @@
       </c>
     </row>
     <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B133" t="inlineStr">
         <is>
           <t>Puruándiro</t>
@@ -2171,6 +2756,11 @@
       </c>
     </row>
     <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B134" t="inlineStr">
         <is>
           <t>San Lucas</t>
@@ -2184,6 +2774,11 @@
       </c>
     </row>
     <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B135" t="inlineStr">
         <is>
           <t>Tacámbaro</t>
@@ -2197,6 +2792,11 @@
       </c>
     </row>
     <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B136" t="inlineStr">
         <is>
           <t>Tepalcatepec</t>
@@ -2210,6 +2810,11 @@
       </c>
     </row>
     <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B137" t="inlineStr">
         <is>
           <t>Tuxpan</t>
@@ -2223,6 +2828,11 @@
       </c>
     </row>
     <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B138" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -2236,6 +2846,11 @@
       </c>
     </row>
     <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B139" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2267,6 +2882,11 @@
       </c>
     </row>
     <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B141" t="inlineStr">
         <is>
           <t>Cuernavaca</t>
@@ -2280,6 +2900,11 @@
       </c>
     </row>
     <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B142" t="inlineStr">
         <is>
           <t>Ocuituco</t>
@@ -2293,6 +2918,11 @@
       </c>
     </row>
     <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B143" t="inlineStr">
         <is>
           <t>Yautepec</t>
@@ -2306,6 +2936,11 @@
       </c>
     </row>
     <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B144" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2337,6 +2972,11 @@
       </c>
     </row>
     <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B146" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2368,6 +3008,11 @@
       </c>
     </row>
     <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B148" t="inlineStr">
         <is>
           <t>San Agustín Yatareni</t>
@@ -2381,6 +3026,11 @@
       </c>
     </row>
     <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B149" t="inlineStr">
         <is>
           <t>San Antonino Monte Verde</t>
@@ -2394,6 +3044,11 @@
       </c>
     </row>
     <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B150" t="inlineStr">
         <is>
           <t>San Dionisio Del Mar</t>
@@ -2407,6 +3062,11 @@
       </c>
     </row>
     <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B151" t="inlineStr">
         <is>
           <t>San Francisco Cahuacuá</t>
@@ -2420,6 +3080,11 @@
       </c>
     </row>
     <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B152" t="inlineStr">
         <is>
           <t>San Martín Itunyoso</t>
@@ -2433,6 +3098,11 @@
       </c>
     </row>
     <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B153" t="inlineStr">
         <is>
           <t>San Miguel Tequixtepec</t>
@@ -2446,6 +3116,11 @@
       </c>
     </row>
     <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B154" t="inlineStr">
         <is>
           <t>San Pedro El Alto</t>
@@ -2459,6 +3134,11 @@
       </c>
     </row>
     <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B155" t="inlineStr">
         <is>
           <t>San Pedro Pochutla</t>
@@ -2472,6 +3152,11 @@
       </c>
     </row>
     <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B156" t="inlineStr">
         <is>
           <t>Santa Cruz Zenzontepec</t>
@@ -2485,6 +3170,11 @@
       </c>
     </row>
     <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B157" t="inlineStr">
         <is>
           <t>Santa María Yolotepec</t>
@@ -2498,6 +3188,11 @@
       </c>
     </row>
     <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B158" t="inlineStr">
         <is>
           <t>Santiago Pinotepa Nacional</t>
@@ -2511,6 +3206,11 @@
       </c>
     </row>
     <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B159" t="inlineStr">
         <is>
           <t>Santo Domingo Tomaltepec</t>
@@ -2524,6 +3224,11 @@
       </c>
     </row>
     <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B160" t="inlineStr">
         <is>
           <t>Tlalixtac De Cabrera</t>
@@ -2537,6 +3242,11 @@
       </c>
     </row>
     <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B161" t="inlineStr">
         <is>
           <t>Totontepec Villa De Morelos</t>
@@ -2550,6 +3260,11 @@
       </c>
     </row>
     <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B162" t="inlineStr">
         <is>
           <t>Villa Talea De Castro</t>
@@ -2563,6 +3278,11 @@
       </c>
     </row>
     <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B163" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2594,6 +3314,11 @@
       </c>
     </row>
     <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B165" t="inlineStr">
         <is>
           <t>Atzitzihuacán</t>
@@ -2607,6 +3332,11 @@
       </c>
     </row>
     <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B166" t="inlineStr">
         <is>
           <t>Calpan</t>
@@ -2620,6 +3350,11 @@
       </c>
     </row>
     <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B167" t="inlineStr">
         <is>
           <t>Cañada Morelos</t>
@@ -2633,6 +3368,11 @@
       </c>
     </row>
     <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B168" t="inlineStr">
         <is>
           <t>Chiautla</t>
@@ -2646,6 +3386,11 @@
       </c>
     </row>
     <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B169" t="inlineStr">
         <is>
           <t>Chiautzingo</t>
@@ -2659,6 +3404,11 @@
       </c>
     </row>
     <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B170" t="inlineStr">
         <is>
           <t>Coatzingo</t>
@@ -2672,6 +3422,11 @@
       </c>
     </row>
     <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B171" t="inlineStr">
         <is>
           <t>Coronango</t>
@@ -2685,6 +3440,11 @@
       </c>
     </row>
     <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B172" t="inlineStr">
         <is>
           <t>Esperanza</t>
@@ -2698,6 +3458,11 @@
       </c>
     </row>
     <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B173" t="inlineStr">
         <is>
           <t>Huaquechula</t>
@@ -2711,6 +3476,11 @@
       </c>
     </row>
     <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B174" t="inlineStr">
         <is>
           <t>Huejotzingo</t>
@@ -2724,6 +3494,11 @@
       </c>
     </row>
     <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B175" t="inlineStr">
         <is>
           <t>Izúcar De Matamoros</t>
@@ -2737,6 +3512,11 @@
       </c>
     </row>
     <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B176" t="inlineStr">
         <is>
           <t>Juan N. Méndez</t>
@@ -2750,6 +3530,11 @@
       </c>
     </row>
     <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B177" t="inlineStr">
         <is>
           <t>Molcaxac</t>
@@ -2763,6 +3548,11 @@
       </c>
     </row>
     <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B178" t="inlineStr">
         <is>
           <t>Nealtican</t>
@@ -2776,6 +3566,11 @@
       </c>
     </row>
     <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B179" t="inlineStr">
         <is>
           <t>Puebla</t>
@@ -2789,6 +3584,11 @@
       </c>
     </row>
     <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B180" t="inlineStr">
         <is>
           <t>San Martín Texmelucan</t>
@@ -2802,6 +3602,11 @@
       </c>
     </row>
     <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B181" t="inlineStr">
         <is>
           <t>San Pedro Cholula</t>
@@ -2815,6 +3620,11 @@
       </c>
     </row>
     <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B182" t="inlineStr">
         <is>
           <t>Tehuitzingo</t>
@@ -2828,6 +3638,11 @@
       </c>
     </row>
     <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B183" t="inlineStr">
         <is>
           <t>Tepatlaxco De Hidalgo</t>
@@ -2841,6 +3656,11 @@
       </c>
     </row>
     <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B184" t="inlineStr">
         <is>
           <t>Tepeojuma</t>
@@ -2854,6 +3674,11 @@
       </c>
     </row>
     <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B185" t="inlineStr">
         <is>
           <t>Tepexco</t>
@@ -2867,6 +3692,11 @@
       </c>
     </row>
     <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B186" t="inlineStr">
         <is>
           <t>Tianguismanalco</t>
@@ -2880,6 +3710,11 @@
       </c>
     </row>
     <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B187" t="inlineStr">
         <is>
           <t>Tilapa</t>
@@ -2893,6 +3728,11 @@
       </c>
     </row>
     <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B188" t="inlineStr">
         <is>
           <t>Tlahuapan</t>
@@ -2906,6 +3746,11 @@
       </c>
     </row>
     <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B189" t="inlineStr">
         <is>
           <t>Tlaola</t>
@@ -2919,6 +3764,11 @@
       </c>
     </row>
     <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B190" t="inlineStr">
         <is>
           <t>Tlapanalá</t>
@@ -2932,6 +3782,11 @@
       </c>
     </row>
     <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B191" t="inlineStr">
         <is>
           <t>Tochtepec</t>
@@ -2945,6 +3800,11 @@
       </c>
     </row>
     <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B192" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -2958,6 +3818,11 @@
       </c>
     </row>
     <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B193" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2989,6 +3854,11 @@
       </c>
     </row>
     <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B195" t="inlineStr">
         <is>
           <t>Querétaro</t>
@@ -3002,6 +3872,11 @@
       </c>
     </row>
     <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B196" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3033,6 +3908,11 @@
       </c>
     </row>
     <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B198" t="inlineStr">
         <is>
           <t>Ciudad Valles</t>
@@ -3046,6 +3926,11 @@
       </c>
     </row>
     <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B199" t="inlineStr">
         <is>
           <t>Rioverde</t>
@@ -3059,6 +3944,11 @@
       </c>
     </row>
     <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B200" t="inlineStr">
         <is>
           <t>Salinas</t>
@@ -3072,6 +3962,11 @@
       </c>
     </row>
     <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B201" t="inlineStr">
         <is>
           <t>San Luis Potosí</t>
@@ -3085,6 +3980,11 @@
       </c>
     </row>
     <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B202" t="inlineStr">
         <is>
           <t>Villa De Reyes</t>
@@ -3098,6 +3998,11 @@
       </c>
     </row>
     <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B203" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3129,6 +4034,11 @@
       </c>
     </row>
     <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B205" t="inlineStr">
         <is>
           <t>Cosalá</t>
@@ -3142,6 +4052,11 @@
       </c>
     </row>
     <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B206" t="inlineStr">
         <is>
           <t>Elota</t>
@@ -3155,6 +4070,11 @@
       </c>
     </row>
     <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B207" t="inlineStr">
         <is>
           <t>Guasave</t>
@@ -3168,6 +4088,11 @@
       </c>
     </row>
     <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B208" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3199,6 +4124,11 @@
       </c>
     </row>
     <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B210" t="inlineStr">
         <is>
           <t>Hermosillo</t>
@@ -3212,6 +4142,11 @@
       </c>
     </row>
     <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B211" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3243,6 +4178,11 @@
       </c>
     </row>
     <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B213" t="inlineStr">
         <is>
           <t>Cárdenas</t>
@@ -3256,6 +4196,11 @@
       </c>
     </row>
     <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B214" t="inlineStr">
         <is>
           <t>Huimanguillo</t>
@@ -3269,6 +4214,11 @@
       </c>
     </row>
     <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B215" t="inlineStr">
         <is>
           <t>Tacotalpa</t>
@@ -3282,6 +4232,11 @@
       </c>
     </row>
     <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B216" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3313,6 +4268,11 @@
       </c>
     </row>
     <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B218" t="inlineStr">
         <is>
           <t>Matamoros</t>
@@ -3326,6 +4286,11 @@
       </c>
     </row>
     <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B219" t="inlineStr">
         <is>
           <t>Nuevo Laredo</t>
@@ -3339,6 +4304,11 @@
       </c>
     </row>
     <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B220" t="inlineStr">
         <is>
           <t>Ocampo</t>
@@ -3352,6 +4322,11 @@
       </c>
     </row>
     <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B221" t="inlineStr">
         <is>
           <t>Tampico</t>
@@ -3365,6 +4340,11 @@
       </c>
     </row>
     <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B222" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3396,6 +4376,11 @@
       </c>
     </row>
     <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B224" t="inlineStr">
         <is>
           <t>Chiautempan</t>
@@ -3409,6 +4394,11 @@
       </c>
     </row>
     <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B225" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3440,6 +4430,11 @@
       </c>
     </row>
     <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B227" t="inlineStr">
         <is>
           <t>Cazones De Herrera</t>
@@ -3453,6 +4448,11 @@
       </c>
     </row>
     <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B228" t="inlineStr">
         <is>
           <t>Coatzacoalcos</t>
@@ -3466,6 +4466,11 @@
       </c>
     </row>
     <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B229" t="inlineStr">
         <is>
           <t>Córdoba</t>
@@ -3479,6 +4484,11 @@
       </c>
     </row>
     <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B230" t="inlineStr">
         <is>
           <t>Coscomatepec</t>
@@ -3492,6 +4502,11 @@
       </c>
     </row>
     <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B231" t="inlineStr">
         <is>
           <t>Espinal</t>
@@ -3505,6 +4520,11 @@
       </c>
     </row>
     <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B232" t="inlineStr">
         <is>
           <t>Huatusco</t>
@@ -3518,6 +4538,11 @@
       </c>
     </row>
     <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B233" t="inlineStr">
         <is>
           <t>Ignacio De La Llave</t>
@@ -3531,6 +4556,11 @@
       </c>
     </row>
     <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B234" t="inlineStr">
         <is>
           <t>Ixhuatlán De Madero</t>
@@ -3544,6 +4574,11 @@
       </c>
     </row>
     <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B235" t="inlineStr">
         <is>
           <t>Jáltipan</t>
@@ -3557,6 +4592,11 @@
       </c>
     </row>
     <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B236" t="inlineStr">
         <is>
           <t>Jamapa</t>
@@ -3570,6 +4610,11 @@
       </c>
     </row>
     <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B237" t="inlineStr">
         <is>
           <t>José Azueta</t>
@@ -3583,6 +4628,11 @@
       </c>
     </row>
     <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B238" t="inlineStr">
         <is>
           <t>Las Choapas</t>
@@ -3596,6 +4646,11 @@
       </c>
     </row>
     <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B239" t="inlineStr">
         <is>
           <t>Martínez De La Torre</t>
@@ -3609,6 +4664,11 @@
       </c>
     </row>
     <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B240" t="inlineStr">
         <is>
           <t>Minatitlán</t>
@@ -3622,6 +4682,11 @@
       </c>
     </row>
     <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B241" t="inlineStr">
         <is>
           <t>Orizaba</t>
@@ -3635,6 +4700,11 @@
       </c>
     </row>
     <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B242" t="inlineStr">
         <is>
           <t>Tecolutla</t>
@@ -3648,6 +4718,11 @@
       </c>
     </row>
     <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B243" t="inlineStr">
         <is>
           <t>Álamo Temapache</t>
@@ -3661,6 +4736,11 @@
       </c>
     </row>
     <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B244" t="inlineStr">
         <is>
           <t>Tepetzintla</t>
@@ -3674,6 +4754,11 @@
       </c>
     </row>
     <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B245" t="inlineStr">
         <is>
           <t>Tierra Blanca</t>
@@ -3687,6 +4772,11 @@
       </c>
     </row>
     <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B246" t="inlineStr">
         <is>
           <t>Tlachichilco</t>
@@ -3700,6 +4790,11 @@
       </c>
     </row>
     <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B247" t="inlineStr">
         <is>
           <t>Tlalixcoyan</t>
@@ -3713,6 +4808,11 @@
       </c>
     </row>
     <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B248" t="inlineStr">
         <is>
           <t>Veracruz</t>
@@ -3726,6 +4826,11 @@
       </c>
     </row>
     <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B249" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3757,6 +4862,11 @@
       </c>
     </row>
     <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Yucatán</t>
+        </is>
+      </c>
       <c r="B251" t="inlineStr">
         <is>
           <t>Tizimín</t>
@@ -3770,6 +4880,11 @@
       </c>
     </row>
     <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Yucatán</t>
+        </is>
+      </c>
       <c r="B252" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3801,6 +4916,11 @@
       </c>
     </row>
     <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B254" t="inlineStr">
         <is>
           <t>Pinos</t>
@@ -3814,6 +4934,11 @@
       </c>
     </row>
     <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B255" t="inlineStr">
         <is>
           <t>Villanueva</t>
@@ -3827,6 +4952,11 @@
       </c>
     </row>
     <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B256" t="inlineStr">
         <is>
           <t>Total</t>
